--- a/outputs/department_timetables/CSEB_1.xlsx
+++ b/outputs/department_timetables/CSEB_1.xlsx
@@ -712,7 +712,7 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" s="2" t="inlineStr">
         <is>
-          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C002</t>
+          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C003</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
@@ -844,48 +844,21 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C003</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C002</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -947,20 +920,21 @@
       <c r="AM6" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="AG2:AL2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I5:N5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="X2:AE2"/>
     <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R5:W5"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="Z3:AE3"/>
     <mergeCell ref="G4:L4"/>
